--- a/Data Files/ValidEmail.xlsx
+++ b/Data Files/ValidEmail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sprint1\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GVVignesh\Katalon Studio\WGR-Android-Automation\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0B5E56-BBC1-4D0C-BE8E-C15F7AD3860C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB1B015-A888-4A12-88F2-7BD85CDD1BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>email-address</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>m@v.co</t>
-  </si>
-  <si>
-    <t>ghy@123.com</t>
   </si>
 </sst>
 </file>
@@ -360,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,18 +393,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{77EB8901-12CB-4002-880E-39CF28E6A07A}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{4006591F-6236-4A21-A016-219FA74A9F05}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{90DAFCB6-B239-47DD-89B3-39A8B96FC247}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{39ED2C75-98C8-4466-ABEA-2899984C6677}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{5B23DCD0-38A9-48A5-A06A-B9AC652B0239}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
